--- a/backend/output_timetables/sem7_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_timetable.xlsx
@@ -59,7 +59,7 @@
       <sz val="13"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="30">
     <fill>
       <patternFill/>
     </fill>
@@ -98,20 +98,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0084e0c5"/>
-        <bgColor rgb="0084e0c5"/>
+        <fgColor rgb="006C5CE7"/>
+        <bgColor rgb="006C5CE7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00cd84e0"/>
-        <bgColor rgb="00cd84e0"/>
+        <fgColor rgb="00F368E0"/>
+        <bgColor rgb="00F368E0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00e084cd"/>
-        <bgColor rgb="00e084cd"/>
+        <fgColor rgb="001DD1A1"/>
+        <bgColor rgb="001DD1A1"/>
       </patternFill>
     </fill>
     <fill>
@@ -122,8 +122,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00848ce0"/>
-        <bgColor rgb="00848ce0"/>
+        <fgColor rgb="008395A7"/>
+        <bgColor rgb="008395A7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084e0c5"/>
+        <bgColor rgb="0084e0c5"/>
       </patternFill>
     </fill>
     <fill>
@@ -136,6 +142,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00e084e0"/>
         <bgColor rgb="00e084e0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cd84e0"/>
+        <bgColor rgb="00cd84e0"/>
       </patternFill>
     </fill>
     <fill>
@@ -154,6 +166,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00a7e084"/>
         <bgColor rgb="00a7e084"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e084cd"/>
+        <bgColor rgb="00e084cd"/>
       </patternFill>
     </fill>
     <fill>
@@ -178,6 +196,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00ae84e0"/>
         <bgColor rgb="00ae84e0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00848ce0"/>
+        <bgColor rgb="00848ce0"/>
       </patternFill>
     </fill>
     <fill>
@@ -243,18 +267,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -333,6 +357,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1265,7 +1301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1311,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1312,6 +1349,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -1344,6 +1382,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1353,17 +1392,12 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
@@ -1381,6 +1415,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1390,11 +1425,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]
-DE451 [C205]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -1404,11 +1435,7 @@
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]
-DE451 [C205]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1421,6 +1448,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -1453,6 +1481,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -1472,17 +1501,12 @@
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1490,6 +1514,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -1504,36 +1529,25 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>DS456 (Tutorial) [C202]
-EC456 (Tutorial) [C203]
-DS401 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>CS457 (Tutorial) [C202]
-DS458 (Tutorial) [C203]
-CS468 (Tutorial) [C204]
-CS473 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>EC462 (Tutorial) [C202]
-EC465 (Tutorial) [C203]
-ASD352 (Tutorial) [C303]
-PH454 (Tutorial) [C204]
-DE451 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="13" t="inlineStr">
         <is>
-          <t>CS470 (Tutorial) [C202]
-DS102 (Tutorial) [C203]
-MA452 (Tutorial) [C204]
-EC463 (Tutorial) [C205]</t>
-        </is>
-      </c>
+          <t>ELECTIVE_B9 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -1548,10 +1562,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -1561,10 +1572,7 @@
       </c>
       <c r="E8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -1572,6 +1580,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1604,6 +1613,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1636,6 +1646,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -1644,6 +1655,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -1652,6 +1664,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="inlineStr">
@@ -1664,6 +1677,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
@@ -1676,6 +1690,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -1698,8 +1713,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="17" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="inlineStr">
@@ -1722,8 +1750,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n"/>
@@ -1732,6 +1773,7 @@
       <c r="D17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
       <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
@@ -1744,6 +1786,7 @@
       <c r="D18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
       <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr">
@@ -1776,6 +1819,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -1788,14 +1832,14 @@
           <t>Cybersecurity techniques</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="C20" s="19" t="inlineStr">
         <is>
           <t>DS456</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -1808,6 +1852,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -1820,14 +1865,14 @@
           <t>Reinforcement learning</t>
         </is>
       </c>
-      <c r="C21" s="19" t="inlineStr">
+      <c r="C21" s="20" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
@@ -1840,6 +1885,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -1852,14 +1898,14 @@
           <t>health care data analytics</t>
         </is>
       </c>
-      <c r="C22" s="20" t="inlineStr">
+      <c r="C22" s="21" t="inlineStr">
         <is>
           <t>DS401</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 09:00-10:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -1872,6 +1918,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -1884,14 +1931,14 @@
           <t>DevOPS and its application</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="22" t="inlineStr">
         <is>
           <t>CS457</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -1904,6 +1951,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -1916,14 +1964,14 @@
           <t>Agentic AI</t>
         </is>
       </c>
-      <c r="C24" s="21" t="inlineStr">
+      <c r="C24" s="23" t="inlineStr">
         <is>
           <t>DS458</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -1936,6 +1984,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1948,14 +1997,14 @@
           <t>Information retrieval</t>
         </is>
       </c>
-      <c r="C25" s="22" t="inlineStr">
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t>CS468</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -1968,6 +2017,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -1980,14 +2030,14 @@
           <t>Cloud SRE and security</t>
         </is>
       </c>
-      <c r="C26" s="23" t="inlineStr">
+      <c r="C26" s="25" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2000,6 +2050,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2012,14 +2063,14 @@
           <t>Generative AI</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C27" s="26" t="inlineStr">
         <is>
           <t>EC462</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00 [L405], Wed 10:30-12:00 [L405]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2032,6 +2083,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2044,14 +2096,14 @@
           <t>Hands on CMOS analog and RF circuit design</t>
         </is>
       </c>
-      <c r="C28" s="24" t="inlineStr">
+      <c r="C28" s="27" t="inlineStr">
         <is>
           <t>EC465</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00 [L406], Wed 10:30-12:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2064,6 +2116,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2076,14 +2129,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="28" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C303], Wed 10:30-12:00 [C303]</t>
+          <t>Mon 10:30-12:00 [L407], Wed 10:30-12:00 [L407]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2096,6 +2149,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2108,14 +2162,14 @@
           <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
         </is>
       </c>
-      <c r="C30" s="26" t="inlineStr">
+      <c r="C30" s="29" t="inlineStr">
         <is>
           <t>PH454</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C204], Wed 10:30-12:00 [C204]</t>
+          <t>Mon 10:30-12:00 [L408], Wed 10:30-12:00 [L408]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2128,6 +2182,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2140,14 +2195,14 @@
           <t>Usability testing</t>
         </is>
       </c>
-      <c r="C31" s="27" t="inlineStr">
+      <c r="C31" s="30" t="inlineStr">
         <is>
           <t>DE451</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C205], Wed 10:30-12:00 [C205]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2160,6 +2215,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -2172,14 +2228,14 @@
           <t>AI for cybersecurity</t>
         </is>
       </c>
-      <c r="C32" s="13" t="inlineStr">
+      <c r="C32" s="31" t="inlineStr">
         <is>
           <t>CS470</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [L407], Thu 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2192,6 +2248,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -2204,14 +2261,14 @@
           <t>Finance and accounting</t>
         </is>
       </c>
-      <c r="C33" s="28" t="inlineStr">
+      <c r="C33" s="32" t="inlineStr">
         <is>
           <t>DS102</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [L408], Thu 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -2224,6 +2281,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -2236,14 +2294,14 @@
           <t>Operation research</t>
         </is>
       </c>
-      <c r="C34" s="29" t="inlineStr">
+      <c r="C34" s="33" t="inlineStr">
         <is>
           <t>MA452</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [L405], Thu 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -2256,6 +2314,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
@@ -2268,14 +2327,14 @@
           <t>Energy efficient neural networks</t>
         </is>
       </c>
-      <c r="C35" s="30" t="inlineStr">
+      <c r="C35" s="34" t="inlineStr">
         <is>
           <t>EC463</t>
         </is>
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C205], Thu 15:30-17:00 [C205]</t>
+          <t>Tue 15:30-17:00 [L406], Thu 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -2288,10 +2347,11 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G35" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -2305,7 +2365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2315,10 +2375,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2352,6 +2413,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -2384,6 +2446,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -2393,17 +2456,12 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
@@ -2421,6 +2479,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2430,10 +2489,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-DE451 [C205]
-PH454 [C204]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -2443,10 +2499,7 @@
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-DE451 [C205]
-PH454 [C204]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2459,6 +2512,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -2491,6 +2545,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -2510,17 +2565,12 @@
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2528,6 +2578,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -2542,35 +2593,25 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>DS456 (Tutorial) [C202]
-EC456 (Tutorial) [C203]
-DS401 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>CS457 (Tutorial) [C202]
-DS458 (Tutorial) [C203]
-CS468 (Tutorial) [C204]
-CS473 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>EC462 (Tutorial) [C202]
-EC465 (Tutorial) [C203]
-DE451 (Tutorial) [C205]
-PH454 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="13" t="inlineStr">
         <is>
-          <t>CS470 (Tutorial) [C202]
-DS102 (Tutorial) [C203]
-MA452 (Tutorial) [C204]
-EC463 (Tutorial) [C205]</t>
-        </is>
-      </c>
+          <t>ELECTIVE_B9 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -2585,10 +2626,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -2598,10 +2636,7 @@
       </c>
       <c r="E8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -2609,6 +2644,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -2641,6 +2677,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -2673,6 +2710,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -2681,6 +2719,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -2689,6 +2728,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="inlineStr">
@@ -2701,6 +2741,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
@@ -2713,6 +2754,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -2735,8 +2777,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="17" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="inlineStr">
@@ -2759,8 +2814,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n"/>
@@ -2769,6 +2837,7 @@
       <c r="D17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
       <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
@@ -2781,6 +2850,7 @@
       <c r="D18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
       <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr">
@@ -2813,6 +2883,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -2825,14 +2896,14 @@
           <t>Cybersecurity techniques</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="C20" s="19" t="inlineStr">
         <is>
           <t>DS456</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -2845,6 +2916,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -2857,14 +2929,14 @@
           <t>Reinforcement learning</t>
         </is>
       </c>
-      <c r="C21" s="19" t="inlineStr">
+      <c r="C21" s="20" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
@@ -2877,6 +2949,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -2889,14 +2962,14 @@
           <t>health care data analytics</t>
         </is>
       </c>
-      <c r="C22" s="20" t="inlineStr">
+      <c r="C22" s="21" t="inlineStr">
         <is>
           <t>DS401</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 09:00-10:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -2909,6 +2982,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -2921,14 +2995,14 @@
           <t>DevOPS and its application</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="22" t="inlineStr">
         <is>
           <t>CS457</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -2941,6 +3015,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -2953,14 +3028,14 @@
           <t>Agentic AI</t>
         </is>
       </c>
-      <c r="C24" s="21" t="inlineStr">
+      <c r="C24" s="23" t="inlineStr">
         <is>
           <t>DS458</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -2973,6 +3048,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -2985,14 +3061,14 @@
           <t>Information retrieval</t>
         </is>
       </c>
-      <c r="C25" s="22" t="inlineStr">
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t>CS468</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3005,6 +3081,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -3017,14 +3094,14 @@
           <t>Cloud SRE and security</t>
         </is>
       </c>
-      <c r="C26" s="23" t="inlineStr">
+      <c r="C26" s="25" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3037,6 +3114,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -3049,14 +3127,14 @@
           <t>Generative AI</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C27" s="26" t="inlineStr">
         <is>
           <t>EC462</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00 [L405], Wed 10:30-12:00 [L405]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3069,6 +3147,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -3081,14 +3160,14 @@
           <t>Hands on CMOS analog and RF circuit design</t>
         </is>
       </c>
-      <c r="C28" s="24" t="inlineStr">
+      <c r="C28" s="27" t="inlineStr">
         <is>
           <t>EC465</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00 [L406], Wed 10:30-12:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3101,6 +3180,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -3113,14 +3193,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="28" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C303], Wed 10:30-12:00 [C303]</t>
+          <t>Mon 10:30-12:00 [L407], Wed 10:30-12:00 [L407]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3133,6 +3213,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3145,14 +3226,14 @@
           <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
         </is>
       </c>
-      <c r="C30" s="26" t="inlineStr">
+      <c r="C30" s="29" t="inlineStr">
         <is>
           <t>PH454</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C204], Wed 10:30-12:00 [C204]</t>
+          <t>Mon 10:30-12:00 [L408], Wed 10:30-12:00 [L408]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3165,6 +3246,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3177,14 +3259,14 @@
           <t>Usability testing</t>
         </is>
       </c>
-      <c r="C31" s="27" t="inlineStr">
+      <c r="C31" s="30" t="inlineStr">
         <is>
           <t>DE451</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C205], Wed 10:30-12:00 [C205]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3197,6 +3279,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -3209,14 +3292,14 @@
           <t>AI for cybersecurity</t>
         </is>
       </c>
-      <c r="C32" s="13" t="inlineStr">
+      <c r="C32" s="31" t="inlineStr">
         <is>
           <t>CS470</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [L407], Thu 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3229,6 +3312,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -3241,14 +3325,14 @@
           <t>Finance and accounting</t>
         </is>
       </c>
-      <c r="C33" s="28" t="inlineStr">
+      <c r="C33" s="32" t="inlineStr">
         <is>
           <t>DS102</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [L408], Thu 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -3261,6 +3345,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -3273,14 +3358,14 @@
           <t>Operation research</t>
         </is>
       </c>
-      <c r="C34" s="29" t="inlineStr">
+      <c r="C34" s="33" t="inlineStr">
         <is>
           <t>MA452</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [L405], Thu 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -3293,6 +3378,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
@@ -3305,14 +3391,14 @@
           <t>Energy efficient neural networks</t>
         </is>
       </c>
-      <c r="C35" s="30" t="inlineStr">
+      <c r="C35" s="34" t="inlineStr">
         <is>
           <t>EC463</t>
         </is>
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C205], Thu 15:30-17:00 [C205]</t>
+          <t>Tue 15:30-17:00 [L406], Thu 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -3325,10 +3411,11 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G35" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -3342,7 +3429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3352,10 +3439,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3389,6 +3477,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -3421,6 +3510,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -3430,17 +3520,12 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
@@ -3458,6 +3543,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3467,10 +3553,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-DE451 [C205]
-PH454 [C204]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -3480,10 +3563,7 @@
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-DE451 [C205]
-PH454 [C204]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3496,6 +3576,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -3528,6 +3609,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -3547,17 +3629,12 @@
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -3565,6 +3642,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -3579,35 +3657,25 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>DS456 (Tutorial) [C202]
-EC456 (Tutorial) [C203]
-DS401 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>CS457 (Tutorial) [C202]
-DS458 (Tutorial) [C203]
-CS468 (Tutorial) [C204]
-CS473 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>EC462 (Tutorial) [C202]
-EC465 (Tutorial) [C203]
-DE451 (Tutorial) [C205]
-PH454 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="13" t="inlineStr">
         <is>
-          <t>CS470 (Tutorial) [C202]
-DS102 (Tutorial) [C203]
-MA452 (Tutorial) [C204]
-EC463 (Tutorial) [C205]</t>
-        </is>
-      </c>
+          <t>ELECTIVE_B9 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -3622,10 +3690,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -3635,10 +3700,7 @@
       </c>
       <c r="E8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -3646,6 +3708,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -3678,6 +3741,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -3710,6 +3774,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -3718,6 +3783,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -3726,6 +3792,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="inlineStr">
@@ -3738,6 +3805,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
@@ -3750,6 +3818,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -3772,8 +3841,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="17" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="inlineStr">
@@ -3796,8 +3878,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n"/>
@@ -3806,6 +3901,7 @@
       <c r="D17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
       <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
@@ -3818,6 +3914,7 @@
       <c r="D18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
       <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr">
@@ -3850,6 +3947,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -3862,14 +3960,14 @@
           <t>Cybersecurity techniques</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="C20" s="19" t="inlineStr">
         <is>
           <t>DS456</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -3882,6 +3980,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -3894,14 +3993,14 @@
           <t>Reinforcement learning</t>
         </is>
       </c>
-      <c r="C21" s="19" t="inlineStr">
+      <c r="C21" s="20" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
@@ -3914,6 +4013,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -3926,14 +4026,14 @@
           <t>health care data analytics</t>
         </is>
       </c>
-      <c r="C22" s="20" t="inlineStr">
+      <c r="C22" s="21" t="inlineStr">
         <is>
           <t>DS401</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 09:00-10:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -3946,6 +4046,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -3958,14 +4059,14 @@
           <t>DevOPS and its application</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="22" t="inlineStr">
         <is>
           <t>CS457</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -3978,6 +4079,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -3990,14 +4092,14 @@
           <t>Agentic AI</t>
         </is>
       </c>
-      <c r="C24" s="21" t="inlineStr">
+      <c r="C24" s="23" t="inlineStr">
         <is>
           <t>DS458</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -4010,6 +4112,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -4022,14 +4125,14 @@
           <t>Information retrieval</t>
         </is>
       </c>
-      <c r="C25" s="22" t="inlineStr">
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t>CS468</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -4042,6 +4145,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -4054,14 +4158,14 @@
           <t>Cloud SRE and security</t>
         </is>
       </c>
-      <c r="C26" s="23" t="inlineStr">
+      <c r="C26" s="25" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -4074,6 +4178,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -4086,14 +4191,14 @@
           <t>Generative AI</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C27" s="26" t="inlineStr">
         <is>
           <t>EC462</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00 [L405], Wed 10:30-12:00 [L405]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -4106,6 +4211,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -4118,14 +4224,14 @@
           <t>Hands on CMOS analog and RF circuit design</t>
         </is>
       </c>
-      <c r="C28" s="24" t="inlineStr">
+      <c r="C28" s="27" t="inlineStr">
         <is>
           <t>EC465</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00 [L406], Wed 10:30-12:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -4138,6 +4244,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -4150,14 +4257,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="28" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C303], Wed 10:30-12:00 [C303]</t>
+          <t>Mon 10:30-12:00 [L407], Wed 10:30-12:00 [L407]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -4170,6 +4277,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -4182,14 +4290,14 @@
           <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
         </is>
       </c>
-      <c r="C30" s="26" t="inlineStr">
+      <c r="C30" s="29" t="inlineStr">
         <is>
           <t>PH454</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C204], Wed 10:30-12:00 [C204]</t>
+          <t>Mon 10:30-12:00 [L408], Wed 10:30-12:00 [L408]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -4202,6 +4310,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -4214,14 +4323,14 @@
           <t>Usability testing</t>
         </is>
       </c>
-      <c r="C31" s="27" t="inlineStr">
+      <c r="C31" s="30" t="inlineStr">
         <is>
           <t>DE451</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C205], Wed 10:30-12:00 [C205]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -4234,6 +4343,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -4246,14 +4356,14 @@
           <t>AI for cybersecurity</t>
         </is>
       </c>
-      <c r="C32" s="13" t="inlineStr">
+      <c r="C32" s="31" t="inlineStr">
         <is>
           <t>CS470</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [L407], Thu 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -4266,6 +4376,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -4278,14 +4389,14 @@
           <t>Finance and accounting</t>
         </is>
       </c>
-      <c r="C33" s="28" t="inlineStr">
+      <c r="C33" s="32" t="inlineStr">
         <is>
           <t>DS102</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [L408], Thu 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -4298,6 +4409,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -4310,14 +4422,14 @@
           <t>Operation research</t>
         </is>
       </c>
-      <c r="C34" s="29" t="inlineStr">
+      <c r="C34" s="33" t="inlineStr">
         <is>
           <t>MA452</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [L405], Thu 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -4330,6 +4442,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
@@ -4342,14 +4455,14 @@
           <t>Energy efficient neural networks</t>
         </is>
       </c>
-      <c r="C35" s="30" t="inlineStr">
+      <c r="C35" s="34" t="inlineStr">
         <is>
           <t>EC463</t>
         </is>
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C205], Thu 15:30-17:00 [C205]</t>
+          <t>Tue 15:30-17:00 [L406], Thu 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -4362,10 +4475,11 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G35" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>

--- a/backend/output_timetables/sem7_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_timetable.xlsx
@@ -1839,12 +1839,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -1905,12 +1905,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -1938,12 +1938,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -1971,12 +1971,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2004,12 +2004,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2037,12 +2037,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2070,12 +2070,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L405], Wed 10:30-12:00 [L405]</t>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L406], Wed 10:30-12:00 [L406]</t>
+          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L407], Wed 10:30-12:00 [L407]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L408], Wed 10:30-12:00 [L408]</t>
+          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2202,12 +2202,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
+          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2235,12 +2235,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L407], Thu 15:30-17:00 [L407]</t>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2268,12 +2268,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L408], Thu 15:30-17:00 [L408]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -2301,12 +2301,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L405], Thu 15:30-17:00 [L405]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L406], Thu 15:30-17:00 [L406]</t>
+          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -2903,12 +2903,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -2969,12 +2969,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -3002,12 +3002,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3035,12 +3035,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3134,12 +3134,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L405], Wed 10:30-12:00 [L405]</t>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L406], Wed 10:30-12:00 [L406]</t>
+          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L407], Wed 10:30-12:00 [L407]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3233,12 +3233,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L408], Wed 10:30-12:00 [L408]</t>
+          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3266,12 +3266,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
+          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3299,12 +3299,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L407], Thu 15:30-17:00 [L407]</t>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L408], Thu 15:30-17:00 [L408]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -3365,12 +3365,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L405], Thu 15:30-17:00 [L405]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L406], Thu 15:30-17:00 [L406]</t>
+          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -3967,12 +3967,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -4000,12 +4000,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -4099,12 +4099,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4132,12 +4132,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4165,12 +4165,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L405], Wed 10:30-12:00 [L405]</t>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4231,12 +4231,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L406], Wed 10:30-12:00 [L406]</t>
+          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4264,12 +4264,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L407], Wed 10:30-12:00 [L407]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4297,12 +4297,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L408], Wed 10:30-12:00 [L408]</t>
+          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4330,12 +4330,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
+          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4363,12 +4363,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L407], Thu 15:30-17:00 [L407]</t>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4396,12 +4396,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L408], Thu 15:30-17:00 [L408]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L405], Thu 15:30-17:00 [L405]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L406], Thu 15:30-17:00 [L406]</t>
+          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">

--- a/backend/output_timetables/sem7_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_timetable.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Regular_Timetable" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="PreMid_Timetable" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="PostMid_Timetable" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Section_A" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Utilization" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Classroom_Allocation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Course_Allocations" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -235,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -263,11 +267,55 @@
         <color rgb="00CCCCCC"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -371,6 +419,8 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1672,10 +1722,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -1685,12 +1735,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -1781,11 +1831,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="B18" s="35" t="n"/>
+      <c r="C18" s="35" t="n"/>
+      <c r="D18" s="35" t="n"/>
+      <c r="E18" s="35" t="n"/>
+      <c r="F18" s="36" t="n"/>
       <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
@@ -1839,12 +1889,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C101]</t>
+          <t>Tue 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -1872,12 +1922,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -1905,12 +1955,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C104]</t>
+          <t>Tue 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -1938,12 +1988,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -1971,12 +2021,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2004,12 +2054,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C104]</t>
+          <t>Wed 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2037,12 +2087,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2075,7 +2125,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2108,7 +2158,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2141,7 +2191,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2174,7 +2224,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2207,7 +2257,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2736,10 +2786,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -2749,12 +2799,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -2845,11 +2895,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="B18" s="35" t="n"/>
+      <c r="C18" s="35" t="n"/>
+      <c r="D18" s="35" t="n"/>
+      <c r="E18" s="35" t="n"/>
+      <c r="F18" s="36" t="n"/>
       <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
@@ -2903,12 +2953,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C101]</t>
+          <t>Tue 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -2936,12 +2986,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -2969,12 +3019,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C104]</t>
+          <t>Tue 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -3002,12 +3052,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3035,12 +3085,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3068,12 +3118,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C104]</t>
+          <t>Wed 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3101,12 +3151,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3139,7 +3189,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3172,7 +3222,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3205,7 +3255,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3238,7 +3288,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3271,7 +3321,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3800,10 +3850,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -3813,12 +3863,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -3909,11 +3959,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="B18" s="35" t="n"/>
+      <c r="C18" s="35" t="n"/>
+      <c r="D18" s="35" t="n"/>
+      <c r="E18" s="35" t="n"/>
+      <c r="F18" s="36" t="n"/>
       <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
@@ -3967,12 +4017,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C101]</t>
+          <t>Tue 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -4000,12 +4050,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -4033,12 +4083,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C104]</t>
+          <t>Tue 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -4066,12 +4116,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -4099,12 +4149,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4132,12 +4182,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C104]</t>
+          <t>Wed 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4165,12 +4215,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4203,7 +4253,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4236,7 +4286,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4269,7 +4319,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4302,7 +4352,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4335,7 +4385,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4485,4 +4535,8553 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COURSE INFORMATION</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CORE COURSES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Course Name [C004]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C [C004]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Term Type [C004]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lectures Hrs [C004]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mini Project [C001]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2 [C001]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Full Sem [C001]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0/0 [C001]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0/0 [C001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE BASKETS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Course [C004]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Course Code [C004]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom [C004]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom [C004]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques [C004]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DS456 [C004]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques [C004]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DS456 [C004]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques [C004]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DS456 [C004]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DevOPS and its application [C004]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CS457 [C004]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DevOPS and its application [C004]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CS457 [C004]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DevOPS and its application [C004]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CS457 [C004]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DevOPS and its application [C004]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CS457 [C004]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Generative AI [C004]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>EC462 [C004]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Generative AI [C004]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>EC462 [C004]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Generative AI [C004]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>EC462 [C004]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Generative AI [C004]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>EC462 [C004]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Generative AI [C004]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>EC462 [C004]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity [C004]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CS470 [C004]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity [C004]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CS470 [C004]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity [C004]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CS470 [C004]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity [C004]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CS470 [C004]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>135</v>
+      </c>
+      <c r="E5" t="n">
+        <v>27</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004, C101, C302, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C102, C303, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C001, C104, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004, C101, C205</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C102, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C104, C203</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C202, C203, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C203, C204, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004, C101, C203</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C102, C204</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C202, C205</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C203, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C004, C101</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem7_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_timetable.xlsx
@@ -786,7 +786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,7 +798,8 @@
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -838,6 +839,11 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -865,6 +871,11 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
           <t>EC498 (0-0-0-8-2 | Full Sem)</t>
         </is>
       </c>
@@ -899,6 +910,11 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -926,6 +942,11 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
           <t>ASD352 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -953,6 +974,11 @@
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
           <t>CS457 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -980,6 +1006,11 @@
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
+          <t>Krishnendu</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
           <t>CS468 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1007,6 +1038,11 @@
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
           <t>CS470 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1034,6 +1070,11 @@
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
+          <t>Malay Kumar</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
           <t>CS473 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1061,6 +1102,11 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
           <t>DE451 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1088,6 +1134,11 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
           <t>DS102 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1115,6 +1166,11 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
+          <t>Girish G N</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
           <t>DS401 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1142,6 +1198,11 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
           <t>DS456 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1169,6 +1230,11 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
+          <t>Sunil Saumya</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
           <t>DS458 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1196,6 +1262,11 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
+          <t>Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
           <t>EC456 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1223,6 +1294,11 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
           <t>EC462 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1250,6 +1326,11 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
+          <t>Jagadish D N</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
           <t>EC463 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1277,6 +1358,11 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
           <t>EC465 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1304,6 +1390,11 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
           <t>MA452 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1331,15 +1422,20 @@
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
+          <t>Aswath Babu</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
           <t>PH454 (3-1-0-0-4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1889,12 +1985,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C303]</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -1922,12 +2018,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -1955,12 +2051,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C001]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -1988,12 +2084,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2021,12 +2117,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2054,12 +2150,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C205]</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2087,12 +2183,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C302]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2125,7 +2221,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C205]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2158,7 +2254,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2191,7 +2287,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2224,7 +2320,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2257,7 +2353,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2953,12 +3049,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C303]</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -2986,12 +3082,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -3019,12 +3115,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C001]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -3052,12 +3148,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3085,12 +3181,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3118,12 +3214,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C205]</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3151,12 +3247,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C302]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3189,7 +3285,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C205]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3222,7 +3318,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3255,7 +3351,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3288,7 +3384,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3321,7 +3417,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4017,12 +4113,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C303]</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -4050,12 +4146,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -4083,12 +4179,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C001]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -4116,12 +4212,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -4149,12 +4245,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4182,12 +4278,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C205]</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4215,12 +4311,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C302]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4253,7 +4349,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C205]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4286,7 +4382,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4319,7 +4415,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4352,7 +4448,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4385,7 +4481,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4959,27 +5055,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mini Project [C001]</t>
+          <t>Mini Project [C204]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0-0-0-8-2 [C001]</t>
+          <t>0-0-0-8-2 [C204]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C001]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/0 [C001]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C001]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -5629,10 +5725,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -6101,10 +6197,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -7016,15 +7112,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
@@ -7036,7 +7136,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -7228,15 +7328,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
@@ -7248,7 +7352,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -7440,15 +7544,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
@@ -7460,7 +7568,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -7652,15 +7760,19 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
@@ -7672,7 +7784,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -7864,15 +7976,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
@@ -7884,7 +8000,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -9064,7 +9180,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -9122,7 +9238,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -9140,7 +9256,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -9198,7 +9314,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -9216,7 +9332,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -9274,7 +9390,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -9292,7 +9408,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -9340,15 +9456,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
@@ -9364,7 +9484,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -10226,7 +10346,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -10244,7 +10364,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -10320,7 +10440,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -10396,7 +10516,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -10454,7 +10574,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10472,7 +10592,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -10530,7 +10650,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10548,7 +10668,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -10606,7 +10726,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10624,7 +10744,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -10682,7 +10802,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10700,7 +10820,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -10758,7 +10878,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10776,7 +10896,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -10852,7 +10972,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -11182,7 +11302,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -11200,7 +11320,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -11258,7 +11378,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -11276,7 +11396,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -11334,7 +11454,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -11352,7 +11472,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -11428,7 +11548,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -11486,7 +11606,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -11504,7 +11624,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -11580,7 +11700,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -11638,7 +11758,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11656,7 +11776,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -11714,7 +11834,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11732,7 +11852,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -11808,7 +11928,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -12822,7 +12942,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101, C302, C303</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -12839,7 +12959,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, C303, C305</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -12856,7 +12976,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001, C104, C304</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -12873,7 +12993,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C101, C205</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -12890,7 +13010,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C302</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -12907,7 +13027,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, C203</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -12924,7 +13044,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, C203, C303</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -12941,7 +13061,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C203, C204, C304</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -12958,7 +13078,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004, C101, C203</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -12975,7 +13095,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -12992,7 +13112,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C202, C205</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -13009,7 +13129,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C203, C302</t>
+          <t>C202</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_timetable.xlsx
@@ -1102,7 +1102,7 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Sandesh Phalke</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>Anand B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C101]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -2051,12 +2051,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C104]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C002]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C104]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2216,12 +2216,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C101]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2249,12 +2249,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C102]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2282,12 +2282,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2315,12 +2315,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2381,12 +2381,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C101]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2414,12 +2414,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C102]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
+          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -3049,12 +3049,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C101]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -3082,12 +3082,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C104]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C002]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C104]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3247,12 +3247,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3280,12 +3280,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C101]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C102]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3346,12 +3346,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3379,12 +3379,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C101]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3478,12 +3478,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C102]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
+          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -4113,12 +4113,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C101]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -4146,12 +4146,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C104]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -4212,12 +4212,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C002]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4278,12 +4278,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C104]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4311,12 +4311,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4344,12 +4344,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C101]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4377,12 +4377,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C102]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4410,12 +4410,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4443,12 +4443,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4476,12 +4476,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4509,12 +4509,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C101]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C102]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
+          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -4608,12 +4608,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -5023,27 +5023,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C004]</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C004]</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C004]</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C004]</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
     </row>
@@ -5055,27 +5055,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mini Project [C204]</t>
+          <t>Mini Project [C102]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0-0-0-8-2 [C204]</t>
+          <t>0-0-0-8-2 [C102]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -5111,27 +5111,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Course [C004]</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Course Code [C004]</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C004]</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C004]</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
     </row>
@@ -5143,27 +5143,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques [C004]</t>
+          <t>Cybersecurity techniques</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DS456 [C004]</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5175,27 +5175,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques [C004]</t>
+          <t>Cybersecurity techniques</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DS456 [C004]</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5207,27 +5207,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques [C004]</t>
+          <t>Cybersecurity techniques</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DS456 [C004]</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5239,27 +5239,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DevOPS and its application [C004]</t>
+          <t>DevOPS and its application</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS457 [C004]</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5271,27 +5271,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DevOPS and its application [C004]</t>
+          <t>DevOPS and its application</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS457 [C004]</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5303,27 +5303,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DevOPS and its application [C004]</t>
+          <t>DevOPS and its application</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS457 [C004]</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5335,27 +5335,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DevOPS and its application [C004]</t>
+          <t>DevOPS and its application</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS457 [C004]</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5367,27 +5367,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Generative AI [C004]</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EC462 [C004]</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C004]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5399,27 +5399,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Generative AI [C004]</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EC462 [C004]</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C004]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5431,27 +5431,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Generative AI [C004]</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EC462 [C004]</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C004]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5463,27 +5463,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Generative AI [C004]</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EC462 [C004]</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C004]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5495,27 +5495,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Generative AI [C004]</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EC462 [C004]</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C004]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5527,27 +5527,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AI for cybersecurity [C004]</t>
+          <t>AI for cybersecurity</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CS470 [C004]</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5559,27 +5559,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AI for cybersecurity [C004]</t>
+          <t>AI for cybersecurity</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CS470 [C004]</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5591,27 +5591,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AI for cybersecurity [C004]</t>
+          <t>AI for cybersecurity</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CS470 [C004]</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5623,27 +5623,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AI for cybersecurity [C004]</t>
+          <t>AI for cybersecurity</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CS470 [C004]</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5823,10 +5823,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5857,10 +5857,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5959,10 +5959,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -6197,10 +6197,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6919,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7030,31 +7030,31 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC498</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Mini Project</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -7064,12 +7064,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Mini Project</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -7078,7 +7078,7 @@
         </is>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mini Project</t>
+          <t>0-0-0-8-2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -7136,12 +7136,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Mini Project</t>
+          <t>0-0-0-8-2</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -7169,36 +7169,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>EC498</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -7208,12 +7208,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7241,36 +7241,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC498</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -7280,12 +7280,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0-0-0-8-2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -7352,12 +7352,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0-0-0-8-2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -7385,51 +7385,55 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -7438,7 +7442,7 @@
         </is>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7457,51 +7461,55 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7510,7 +7518,7 @@
         </is>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7529,17 +7537,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC498</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7549,7 +7557,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7562,18 +7570,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7601,51 +7613,55 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7654,7 +7670,7 @@
         </is>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -7673,51 +7689,55 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7726,7 +7746,7 @@
         </is>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7745,17 +7765,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EC498</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7778,18 +7798,22 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7817,51 +7841,55 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7870,7 +7898,7 @@
         </is>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7889,51 +7917,51 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7942,7 +7970,7 @@
         </is>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7961,17 +7989,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EC498</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7994,10 +8022,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>C204</t>
@@ -8005,7 +8037,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -8033,51 +8065,55 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -8086,7 +8122,7 @@
         </is>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -8105,7 +8141,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -8115,7 +8151,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -8143,17 +8179,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -8181,7 +8217,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -8191,7 +8227,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -8206,7 +8242,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -8219,17 +8255,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -8257,17 +8293,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -8300,17 +8336,17 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P19" t="b">
@@ -8333,17 +8369,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8371,22 +8407,22 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P20" t="b">
@@ -8409,17 +8445,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8447,22 +8483,22 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P21" t="b">
@@ -8485,17 +8521,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8523,17 +8559,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8561,17 +8597,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8586,7 +8622,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -8599,17 +8635,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8637,17 +8673,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8675,17 +8711,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8713,56 +8749,64 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -8781,56 +8825,64 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DevOPS and its application</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DevOPS and its application</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -8849,56 +8901,64 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Generative AI</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Generative AI</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -8917,56 +8977,64 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AI for cybersecurity</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>AI for cybersecurity</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -8985,17 +9053,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -9010,7 +9078,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -9023,17 +9091,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -9061,17 +9129,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -9086,7 +9154,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -9099,17 +9167,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -9137,17 +9205,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -9175,17 +9243,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -9213,17 +9281,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -9251,17 +9319,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -9289,17 +9357,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -9332,17 +9400,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P33" t="b">
@@ -9365,7 +9433,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -9375,7 +9443,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -9385,12 +9453,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -9403,17 +9471,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -9441,7 +9509,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -9451,7 +9519,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9461,12 +9529,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -9479,17 +9547,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9517,17 +9585,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9537,12 +9605,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -9555,22 +9623,22 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P36" t="b">
@@ -9593,17 +9661,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9613,12 +9681,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -9631,22 +9699,22 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -9669,27 +9737,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -9707,17 +9775,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9745,17 +9813,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9765,12 +9833,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9783,17 +9851,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9821,56 +9889,64 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DS456</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -9889,56 +9965,64 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -9957,12 +10041,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9972,31 +10056,35 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -10004,9 +10092,13 @@
           <t>EC462</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -10025,56 +10117,64 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -10093,17 +10193,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -10118,7 +10218,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -10136,17 +10236,17 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P44" t="b">
@@ -10169,17 +10269,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -10194,7 +10294,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -10212,17 +10312,17 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P45" t="b">
@@ -10245,17 +10345,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -10270,7 +10370,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -10288,17 +10388,17 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P46" t="b">
@@ -10321,17 +10421,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -10359,17 +10459,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -10397,17 +10497,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10422,7 +10522,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -10435,17 +10535,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -10473,17 +10573,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10511,17 +10611,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10549,17 +10649,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10574,7 +10674,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10587,17 +10687,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10625,17 +10725,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10650,7 +10750,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10663,22 +10763,22 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P51" t="b">
@@ -10701,7 +10801,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10711,24 +10811,20 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -10739,17 +10835,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10777,7 +10873,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10787,17 +10883,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -10815,17 +10911,17 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10853,7 +10949,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10863,17 +10959,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -10891,17 +10987,17 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10911,1986 +11007,6 @@
       </c>
       <c r="P54" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>7</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J55" t="b">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J56" t="b">
-        <v>1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J57" t="b">
-        <v>1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J58" t="b">
-        <v>1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>7</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J59" t="b">
-        <v>1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J60" t="b">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>7</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J61" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>7</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J62" t="b">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>7</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J63" t="b">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>7</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J64" t="b">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>7</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J65" t="b">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>7</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J66" t="b">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>7</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J67" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>7</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J68" t="b">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>7</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J69" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>7</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J70" t="b">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>7</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J71" t="b">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>7</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J72" t="b">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>7</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J73" t="b">
-        <v>1</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>7</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J74" t="b">
-        <v>1</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>7</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J75" t="b">
-        <v>1</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>7</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J76" t="b">
-        <v>1</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>7</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J77" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>7</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J78" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>7</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J79" t="b">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J80" t="b">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>7</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J81" t="b">
-        <v>1</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12942,7 +11058,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C101, L404</t>
         </is>
       </c>
     </row>
@@ -12959,7 +11075,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C102, L405</t>
         </is>
       </c>
     </row>
@@ -12976,7 +11092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C104, L406</t>
         </is>
       </c>
     </row>
@@ -12993,7 +11109,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C102, C205</t>
         </is>
       </c>
     </row>
@@ -13010,7 +11126,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205, C302</t>
         </is>
       </c>
     </row>
@@ -13027,7 +11143,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203, C302, C303</t>
         </is>
       </c>
     </row>
@@ -13044,7 +11160,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303, C305</t>
         </is>
       </c>
     </row>
@@ -13061,7 +11177,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C001, C304</t>
         </is>
       </c>
     </row>
@@ -13078,7 +11194,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C002, C204, L404</t>
         </is>
       </c>
     </row>
@@ -13095,7 +11211,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205, L402, L405</t>
         </is>
       </c>
     </row>
@@ -13112,7 +11228,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302, L404, L406</t>
         </is>
       </c>
     </row>
@@ -13129,7 +11245,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303, L405, L407</t>
         </is>
       </c>
     </row>
@@ -13146,7 +11262,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C101, C102, C305</t>
         </is>
       </c>
     </row>
@@ -13163,7 +11279,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001, C104, C203</t>
         </is>
       </c>
     </row>
@@ -13180,7 +11296,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002, C202, C204</t>
         </is>
       </c>
     </row>
@@ -13197,7 +11313,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003, C203, C205</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_timetable.xlsx
@@ -2084,12 +2084,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C002]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C002]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3247,12 +3247,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -4212,12 +4212,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C002]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4278,12 +4278,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4311,12 +4311,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -5055,27 +5055,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mini Project [C102]</t>
+          <t>Mini Project [C303]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0-0-0-8-2 [C102]</t>
+          <t>0-0-0-8-2 [C303]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C303]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C303]</t>
         </is>
       </c>
     </row>
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5959,10 +5959,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -6469,10 +6469,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6919,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -7064,7 +7064,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -7136,7 +7136,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -7208,7 +7208,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -7280,7 +7280,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -7352,7 +7352,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7476,19 +7476,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -7504,7 +7500,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -7552,17 +7548,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -7580,7 +7576,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -7656,7 +7652,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -7732,7 +7728,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -7790,7 +7786,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7808,7 +7804,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -7866,7 +7862,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7884,7 +7880,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -7932,15 +7928,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -7989,17 +7989,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -8025,26 +8025,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="b">
         <v>0</v>
       </c>
@@ -8065,17 +8057,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -8085,7 +8077,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -8101,26 +8093,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="b">
         <v>0</v>
       </c>
@@ -8141,17 +8125,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>Cybersecurity techniques</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -8161,12 +8145,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -8177,26 +8161,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>CS468</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="b">
         <v>0</v>
       </c>
@@ -8227,7 +8203,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -8242,7 +8218,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -8260,12 +8236,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -8298,12 +8274,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -8331,22 +8307,22 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P19" t="b">
@@ -8374,12 +8350,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8407,22 +8383,22 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P20" t="b">
@@ -8450,12 +8426,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8483,22 +8459,22 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P21" t="b">
@@ -8526,12 +8502,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8559,7 +8535,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -8569,12 +8545,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P22" t="b">
@@ -8602,12 +8578,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8622,7 +8598,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -8635,22 +8611,22 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P23" t="b">
@@ -8678,12 +8654,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8698,7 +8674,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -8711,22 +8687,22 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P24" t="b">
@@ -8759,7 +8735,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8774,7 +8750,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8792,12 +8768,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8825,17 +8801,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8863,7 +8839,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -8873,7 +8849,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8901,17 +8877,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8926,7 +8902,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -8939,17 +8915,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8977,17 +8953,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -9015,17 +8991,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -9053,17 +9029,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -9073,7 +9049,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -9089,26 +9065,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="b">
         <v>0</v>
       </c>
@@ -9129,17 +9097,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -9149,7 +9117,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -9165,26 +9133,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="b">
         <v>0</v>
       </c>
@@ -9205,12 +9165,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -9225,12 +9185,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -9241,14 +9201,10 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -9256,11 +9212,7 @@
           <t>DS456</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="b">
         <v>0</v>
       </c>
@@ -9286,12 +9238,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -9319,17 +9271,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -9362,12 +9314,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -9395,17 +9347,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -9438,12 +9390,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -9453,12 +9405,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -9471,22 +9423,22 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P34" t="b">
@@ -9514,12 +9466,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9529,12 +9481,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -9547,22 +9499,22 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P35" t="b">
@@ -9590,12 +9542,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9605,7 +9557,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -9623,22 +9575,22 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P36" t="b">
@@ -9666,12 +9618,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9681,12 +9633,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -9699,22 +9651,22 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -9737,7 +9689,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9747,17 +9699,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -9775,17 +9727,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9813,7 +9765,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9823,7 +9775,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9833,12 +9785,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9851,17 +9803,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9889,17 +9841,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9932,17 +9884,17 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P40" t="b">
@@ -9965,17 +9917,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -10008,17 +9960,17 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P41" t="b">
@@ -10041,7 +9993,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -10051,7 +10003,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -10061,7 +10013,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -10079,17 +10031,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -10117,7 +10069,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -10127,7 +10079,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -10137,12 +10089,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -10155,17 +10107,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -10193,17 +10145,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -10213,7 +10165,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -10229,26 +10181,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="b">
         <v>0</v>
       </c>
@@ -10269,17 +10213,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -10289,7 +10233,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10305,26 +10249,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="b">
         <v>0</v>
       </c>
@@ -10345,17 +10281,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -10365,7 +10301,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10381,26 +10317,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="b">
         <v>0</v>
       </c>
@@ -10426,12 +10354,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -10441,12 +10369,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -10459,17 +10387,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -10502,12 +10430,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10517,12 +10445,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -10535,17 +10463,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -10578,12 +10506,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10593,12 +10521,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -10611,17 +10539,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10654,12 +10582,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10669,7 +10597,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -10687,17 +10615,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10725,7 +10653,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10735,7 +10663,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10750,7 +10678,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10763,17 +10691,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10801,7 +10729,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10811,20 +10739,24 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -10835,17 +10767,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10873,7 +10805,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10883,22 +10815,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10911,17 +10843,17 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10949,63 +10881,1151 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>Fri</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>EC463</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="J54" t="b">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr">
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>C003</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>EC463</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
       </c>
-      <c r="P54" t="b">
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11058,7 +12078,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, L404</t>
+          <t>C101, C305, L408</t>
         </is>
       </c>
     </row>
@@ -11075,7 +12095,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, L405</t>
+          <t>C001, C102</t>
         </is>
       </c>
     </row>
@@ -11092,7 +12112,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, L406</t>
+          <t>C002, C104</t>
         </is>
       </c>
     </row>
@@ -11109,7 +12129,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102, C205</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -11126,7 +12146,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C205, C302</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -11143,7 +12163,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C203, C302, C303</t>
+          <t>C104, L407</t>
         </is>
       </c>
     </row>
@@ -11160,7 +12180,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C303, C305</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
@@ -11177,7 +12197,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C304</t>
+          <t>C202, C203</t>
         </is>
       </c>
     </row>
@@ -11194,7 +12214,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C204, L404</t>
+          <t>C101, L403, L405</t>
         </is>
       </c>
     </row>
@@ -11211,7 +12231,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C205, L402, L405</t>
+          <t>C102, L404, L406</t>
         </is>
       </c>
     </row>
@@ -11228,7 +12248,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C302, L404, L406</t>
+          <t>C104, L405, L407</t>
         </is>
       </c>
     </row>
@@ -11245,7 +12265,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C303, L405, L407</t>
+          <t>C202, L406, L408</t>
         </is>
       </c>
     </row>
@@ -11279,7 +12299,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C104, C203</t>
+          <t>C001, C102, C204</t>
         </is>
       </c>
     </row>
@@ -11296,7 +12316,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C202, C204</t>
+          <t>C002, C104, C302</t>
         </is>
       </c>
     </row>
@@ -11313,7 +12333,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C003, C203, C205</t>
+          <t>C003, C202, C303</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_timetable.xlsx
@@ -2084,12 +2084,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
+          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
+          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3247,12 +3247,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
+          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
+          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -4212,12 +4212,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4278,12 +4278,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4311,12 +4311,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
+          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
+          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -5055,27 +5055,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mini Project [C303]</t>
+          <t>Mini Project [C102]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0-0-0-8-2 [C303]</t>
+          <t>0-0-0-8-2 [C102]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/0 [C303]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C303]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6435,10 +6435,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6469,10 +6469,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6919,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -7064,7 +7064,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -7136,7 +7136,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -7208,7 +7208,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -7280,7 +7280,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -7352,7 +7352,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7476,15 +7476,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -7500,7 +7504,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -7548,12 +7552,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7576,7 +7580,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -8028,7 +8032,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -8096,7 +8100,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -8193,17 +8197,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DevOPS and its application</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -8213,12 +8217,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -8229,26 +8233,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="b">
         <v>0</v>
       </c>
@@ -8269,17 +8265,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>AI for cybersecurity</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -8289,12 +8285,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -8305,26 +8301,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="b">
         <v>0</v>
       </c>
@@ -8355,7 +8343,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8388,12 +8376,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -8431,7 +8419,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8464,12 +8452,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -8502,12 +8490,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8535,22 +8523,22 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P22" t="b">
@@ -8578,12 +8566,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8611,22 +8599,22 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P23" t="b">
@@ -8659,7 +8647,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8692,12 +8680,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8730,12 +8718,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8763,22 +8751,22 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P25" t="b">
@@ -8806,12 +8794,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8839,22 +8827,22 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P26" t="b">
@@ -8887,7 +8875,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8920,12 +8908,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8963,7 +8951,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8996,12 +8984,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -9034,12 +9022,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -9049,12 +9037,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -9065,18 +9053,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P29" t="b">
         <v>0</v>
       </c>
@@ -9102,12 +9098,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -9117,12 +9113,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -9133,18 +9129,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P30" t="b">
         <v>0</v>
       </c>
@@ -9170,12 +9174,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -9204,12 +9208,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -9233,17 +9237,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -9253,12 +9257,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -9269,26 +9273,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="b">
         <v>0</v>
       </c>
@@ -9309,17 +9305,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -9329,12 +9325,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -9345,26 +9341,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="b">
         <v>0</v>
       </c>
@@ -9385,17 +9373,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -9405,12 +9393,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -9421,26 +9409,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="b">
         <v>0</v>
       </c>
@@ -9461,17 +9441,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9481,12 +9461,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -9497,26 +9477,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="b">
         <v>0</v>
       </c>
@@ -9547,7 +9519,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9562,7 +9534,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -9580,12 +9552,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -9618,12 +9590,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9651,17 +9623,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9694,12 +9666,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -9727,17 +9699,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9770,12 +9742,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9803,17 +9775,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9846,12 +9818,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9861,7 +9833,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9879,22 +9851,22 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P40" t="b">
@@ -9922,12 +9894,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9937,12 +9909,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9955,22 +9927,22 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P41" t="b">
@@ -9998,12 +9970,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -10013,12 +9985,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -10031,22 +10003,22 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P42" t="b">
@@ -10074,12 +10046,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -10089,12 +10061,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -10107,22 +10079,22 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P43" t="b">
@@ -10150,12 +10122,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -10181,7 +10153,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
           <t>L408</t>
@@ -10189,10 +10165,14 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P44" t="b">
         <v>0</v>
       </c>
@@ -10218,12 +10198,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -10233,12 +10213,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -10249,18 +10229,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P45" t="b">
         <v>0</v>
       </c>
@@ -10286,12 +10274,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -10301,12 +10289,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -10317,18 +10305,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P46" t="b">
         <v>0</v>
       </c>
@@ -10349,17 +10345,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -10369,12 +10365,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -10392,17 +10388,17 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P47" t="b">
@@ -10425,17 +10421,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10461,26 +10457,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="b">
         <v>0</v>
       </c>
@@ -10501,17 +10489,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10537,26 +10525,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CS468</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -10577,17 +10557,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10613,26 +10593,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>CS473</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="b">
         <v>0</v>
       </c>
@@ -10653,17 +10625,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10673,12 +10645,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10689,26 +10661,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="b">
         <v>0</v>
       </c>
@@ -10729,17 +10693,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10749,12 +10713,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10765,26 +10729,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="b">
         <v>0</v>
       </c>
@@ -10810,12 +10766,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10843,22 +10799,22 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P53" t="b">
@@ -10886,12 +10842,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10901,12 +10857,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10919,22 +10875,22 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P54" t="b">
@@ -10962,12 +10918,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10995,22 +10951,22 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P55" t="b">
@@ -11038,12 +10994,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -11071,7 +11027,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -11081,7 +11037,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -11114,12 +11070,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -11134,7 +11090,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -11147,22 +11103,22 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P57" t="b">
@@ -11190,12 +11146,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -11223,22 +11179,22 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P58" t="b">
@@ -11266,12 +11222,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -11286,7 +11242,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -11299,22 +11255,22 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P59" t="b">
@@ -11342,12 +11298,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -11357,12 +11313,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -11373,18 +11329,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P60" t="b">
         <v>0</v>
       </c>
@@ -11410,12 +11374,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -11425,7 +11389,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -11441,18 +11405,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P61" t="b">
         <v>0</v>
       </c>
@@ -11478,12 +11450,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -11493,12 +11465,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -11509,18 +11481,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P62" t="b">
         <v>0</v>
       </c>
@@ -11541,17 +11521,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11584,17 +11564,17 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P63" t="b">
@@ -11617,30 +11597,34 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -11656,17 +11640,17 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P64" t="b">
@@ -11689,32 +11673,32 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -11732,17 +11716,17 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -11765,32 +11749,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11801,26 +11785,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="b">
         <v>0</v>
       </c>
@@ -11841,17 +11817,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11885,7 +11861,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -11909,17 +11885,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11953,7 +11929,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -11977,7 +11953,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -11987,7 +11963,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -12016,16 +11992,592 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12078,7 +12630,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, C305, L408</t>
+          <t>C101, L408</t>
         </is>
       </c>
     </row>
@@ -12095,7 +12647,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C102</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -12112,7 +12664,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C104</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -12163,7 +12715,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, L407</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -12180,7 +12732,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -12197,7 +12749,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -12214,7 +12766,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C101, L403, L405</t>
+          <t>C101, L406, L408</t>
         </is>
       </c>
     </row>
@@ -12231,7 +12783,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102, L404, L406</t>
+          <t>C101, C102, L408</t>
         </is>
       </c>
     </row>
@@ -12248,7 +12800,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C104, L405, L407</t>
+          <t>C101, C102, C104</t>
         </is>
       </c>
     </row>
@@ -12265,7 +12817,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C202, L406, L408</t>
+          <t>C102, C104, C202</t>
         </is>
       </c>
     </row>
@@ -12282,7 +12834,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C101, C102, C305</t>
+          <t>C101, C302, L408</t>
         </is>
       </c>
     </row>
@@ -12299,7 +12851,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C102, C204</t>
+          <t>C102, C304</t>
         </is>
       </c>
     </row>
@@ -12316,7 +12868,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C104, C302</t>
+          <t>C104, C305</t>
         </is>
       </c>
     </row>
@@ -12333,7 +12885,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C003, C202, C303</t>
+          <t>C202, L402</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_timetable.xlsx
@@ -2084,12 +2084,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
+          <t>Tue 15:30-17:00 [C001], Thu 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C305]</t>
+          <t>Tue 15:30-17:00 [C003], Thu 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
+          <t>Tue 15:30-17:00 [C004], Thu 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
+          <t>Tue 15:30-17:00 [C001], Thu 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C305]</t>
+          <t>Tue 15:30-17:00 [C003], Thu 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
+          <t>Tue 15:30-17:00 [C004], Thu 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -4212,12 +4212,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4278,12 +4278,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
+          <t>Tue 15:30-17:00 [C001], Thu 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C305]</t>
+          <t>Tue 15:30-17:00 [C003], Thu 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
+          <t>Tue 15:30-17:00 [C004], Thu 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -5023,27 +5023,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Course Name [L407]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [L407]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Term Type [L407]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>Lectures Hrs [L407]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>Tutorials Hrs [L407]</t>
         </is>
       </c>
     </row>
@@ -5055,27 +5055,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mini Project [C102]</t>
+          <t>Mini Project [C202]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0-0-0-8-2 [C102]</t>
+          <t>0-0-0-8-2 [C304]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C304]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C305]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C203]</t>
         </is>
       </c>
     </row>
@@ -5111,27 +5111,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Course [L407]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Course Code [L407]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>Lecture Slot - Classroom [L407]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Tutorial Slot - Classroom [L407]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [L407]</t>
         </is>
       </c>
     </row>
@@ -5143,27 +5143,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques</t>
+          <t>Cybersecurity techniques [L407]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>DS456 [L407]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5175,27 +5175,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques</t>
+          <t>Cybersecurity techniques [L407]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>DS456 [L407]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5207,27 +5207,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques</t>
+          <t>Cybersecurity techniques [L407]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>DS456 [L407]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5239,27 +5239,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DevOPS and its application</t>
+          <t>DevOPS and its application [L407]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>CS457 [L407]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5271,27 +5271,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DevOPS and its application</t>
+          <t>DevOPS and its application [L407]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>CS457 [L407]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5303,27 +5303,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DevOPS and its application</t>
+          <t>DevOPS and its application [L407]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>CS457 [L407]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5335,27 +5335,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DevOPS and its application</t>
+          <t>DevOPS and its application [L407]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>CS457 [L407]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5367,27 +5367,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Generative AI</t>
+          <t>Generative AI [L407]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC462 [L407]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00 [L407]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5399,27 +5399,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Generative AI</t>
+          <t>Generative AI [L407]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC462 [L407]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00 [L407]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5431,27 +5431,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Generative AI</t>
+          <t>Generative AI [L407]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC462 [L407]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00 [L407]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5463,27 +5463,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Generative AI</t>
+          <t>Generative AI [L407]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC462 [L407]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00 [L407]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5495,27 +5495,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Generative AI</t>
+          <t>Generative AI [L407]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC462 [L407]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00 [L407]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5527,27 +5527,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AI for cybersecurity</t>
+          <t>AI for cybersecurity [L407]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>CS470 [L407]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5559,27 +5559,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AI for cybersecurity</t>
+          <t>AI for cybersecurity [L407]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>CS470 [L407]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5591,27 +5591,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AI for cybersecurity</t>
+          <t>AI for cybersecurity [L407]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>CS470 [L407]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5623,27 +5623,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AI for cybersecurity</t>
+          <t>AI for cybersecurity [L407]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>CS470 [L407]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5755,10 +5755,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6129,10 +6129,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6163,10 +6163,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6435,10 +6435,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6503,10 +6503,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6537,10 +6537,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6857,10 +6857,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6919,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7030,12 +7030,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC498</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mini Project</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -7045,16 +7045,16 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -7064,12 +7064,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Mini Project</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -7078,7 +7078,7 @@
         </is>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0-0-0-8-2</t>
+          <t>Mini Project</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -7136,12 +7136,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0-0-0-8-2</t>
+          <t>Mini Project</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -7169,17 +7169,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC498</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -7189,16 +7189,16 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -7208,12 +7208,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7241,17 +7241,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC498</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -7261,16 +7261,16 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -7280,12 +7280,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>0-0-0-8-2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -7352,12 +7352,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>0-0-0-8-2</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -7385,17 +7385,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7405,35 +7405,31 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -7442,7 +7438,7 @@
         </is>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -7461,17 +7457,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7481,35 +7477,31 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7518,7 +7510,7 @@
         </is>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -7537,17 +7529,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>EC498</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7562,7 +7554,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -7570,22 +7562,18 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7613,17 +7601,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7633,35 +7621,31 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7670,7 +7654,7 @@
         </is>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -7689,17 +7673,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7709,35 +7693,31 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7746,7 +7726,7 @@
         </is>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -7765,17 +7745,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>EC498</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7790,7 +7770,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7798,22 +7778,18 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7841,17 +7817,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7861,35 +7837,31 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7898,7 +7870,7 @@
         </is>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -7917,17 +7889,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7937,7 +7909,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -7946,26 +7918,22 @@
         </is>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7974,7 +7942,7 @@
         </is>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -7993,17 +7961,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC498</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -8013,7 +7981,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -8026,21 +7994,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P15" t="b">
         <v>0</v>
       </c>
@@ -8061,7 +8033,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -8071,7 +8043,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -8090,27 +8062,31 @@
         </is>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -8158,7 +8134,7 @@
         </is>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -8168,7 +8144,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -8178,7 +8154,7 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -8226,7 +8202,7 @@
         </is>
       </c>
       <c r="J18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -8236,7 +8212,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -8246,7 +8222,7 @@
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -8275,7 +8251,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AI for cybersecurity</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -8294,7 +8270,7 @@
         </is>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -8304,17 +8280,17 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>AI for cybersecurity</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -8333,17 +8309,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>AI for cybersecurity</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8353,44 +8329,36 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -8414,12 +8382,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8434,7 +8402,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -8447,22 +8415,22 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P21" t="b">
@@ -8490,12 +8458,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8523,22 +8491,22 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P22" t="b">
@@ -8566,12 +8534,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8586,7 +8554,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -8599,22 +8567,22 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P23" t="b">
@@ -8642,7 +8610,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -8657,30 +8625,26 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -8688,13 +8652,9 @@
           <t>DS456</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -8718,12 +8678,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8733,44 +8693,36 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>EC456</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -8794,12 +8746,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8809,44 +8761,36 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DS401</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -8870,7 +8814,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -8885,30 +8829,26 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -8916,13 +8856,9 @@
           <t>CS470</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -8941,17 +8877,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8979,17 +8915,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -9017,17 +8953,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -9042,7 +8978,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -9055,17 +8991,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -9093,34 +9029,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="b">
         <v>0</v>
       </c>
@@ -9131,17 +9063,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -9169,17 +9101,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -9189,12 +9121,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -9205,18 +9137,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P31" t="b">
         <v>0</v>
       </c>
@@ -9237,17 +9177,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -9257,7 +9197,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -9273,18 +9213,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P32" t="b">
         <v>0</v>
       </c>
@@ -9305,17 +9253,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -9325,7 +9273,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -9341,18 +9289,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DS456</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr"/>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P33" t="b">
         <v>0</v>
       </c>
@@ -9373,17 +9329,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -9393,7 +9349,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -9409,18 +9365,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr"/>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P34" t="b">
         <v>0</v>
       </c>
@@ -9441,7 +9405,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -9451,7 +9415,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9470,7 +9434,7 @@
         </is>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -9480,17 +9444,17 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -9514,12 +9478,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9529,44 +9493,36 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -9590,12 +9546,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9605,44 +9561,36 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -9666,12 +9614,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -9681,44 +9629,36 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -9737,17 +9677,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9762,7 +9702,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9775,17 +9715,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9813,17 +9753,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9851,17 +9791,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9889,7 +9829,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9899,7 +9839,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9914,7 +9854,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9927,17 +9867,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9965,7 +9905,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -9975,7 +9915,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9990,7 +9930,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -10003,17 +9943,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -10041,17 +9981,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -10079,22 +10019,22 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P43" t="b">
@@ -10117,7 +10057,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -10127,7 +10067,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -10137,12 +10077,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -10155,17 +10095,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -10193,7 +10133,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -10203,7 +10143,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -10218,7 +10158,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -10231,17 +10171,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -10269,7 +10209,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -10279,7 +10219,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -10294,7 +10234,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -10307,17 +10247,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -10345,7 +10285,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -10355,7 +10295,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -10370,7 +10310,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -10383,17 +10323,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -10421,17 +10361,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10441,12 +10381,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -10457,18 +10397,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P48" t="b">
         <v>0</v>
       </c>
@@ -10489,17 +10437,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10509,7 +10457,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -10525,18 +10473,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -10557,17 +10513,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10577,12 +10533,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10593,18 +10549,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P50" t="b">
         <v>0</v>
       </c>
@@ -10625,17 +10589,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10645,7 +10609,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -10661,18 +10625,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P51" t="b">
         <v>0</v>
       </c>
@@ -10693,7 +10665,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10703,7 +10675,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10722,7 +10694,7 @@
         </is>
       </c>
       <c r="J52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -10732,17 +10704,17 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -10766,12 +10738,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10790,35 +10762,27 @@
         </is>
       </c>
       <c r="J53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -10842,12 +10806,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10866,35 +10830,27 @@
         </is>
       </c>
       <c r="J54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -10918,12 +10874,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10933,44 +10889,36 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>CS468</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -10989,17 +10937,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -11009,12 +10957,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -11027,22 +10975,22 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P56" t="b">
@@ -11065,7 +11013,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -11075,7 +11023,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -11085,12 +11033,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -11103,17 +11051,17 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -11141,7 +11089,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -11151,7 +11099,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -11161,12 +11109,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -11179,17 +11127,17 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -11217,7 +11165,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -11227,7 +11175,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -11237,12 +11185,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -11255,17 +11203,17 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -11293,17 +11241,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -11313,1272 +11261,36 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>7</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J61" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>7</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J62" t="b">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>7</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J63" t="b">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>7</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J64" t="b">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>7</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J65" t="b">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>7</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J66" t="b">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>7</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J67" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>7</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J68" t="b">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>7</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J69" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>7</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J70" t="b">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>7</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J71" t="b">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>7</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J72" t="b">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>7</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J73" t="b">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>7</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J74" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>7</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J75" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>7</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J76" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>7</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J77" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12630,7 +11342,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, L408</t>
+          <t>C202, C205, L407</t>
         </is>
       </c>
     </row>
@@ -12647,7 +11359,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203, C302</t>
         </is>
       </c>
     </row>
@@ -12664,7 +11376,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001, C303</t>
         </is>
       </c>
     </row>
@@ -12681,7 +11393,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102, L407</t>
         </is>
       </c>
     </row>
@@ -12698,7 +11410,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -12715,7 +11427,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
@@ -12732,7 +11444,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -12749,7 +11461,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -12766,7 +11478,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C101, L406, L408</t>
+          <t>C102, C205, L407</t>
         </is>
       </c>
     </row>
@@ -12783,7 +11495,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C101, C102, L408</t>
+          <t>C205, C303</t>
         </is>
       </c>
     </row>
@@ -12800,7 +11512,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C101, C102, C104</t>
+          <t>C204, C304</t>
         </is>
       </c>
     </row>
@@ -12817,7 +11529,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C102, C104, C202</t>
+          <t>C304, C305</t>
         </is>
       </c>
     </row>
@@ -12834,7 +11546,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C101, C302, L408</t>
+          <t>C101, L403, L407</t>
         </is>
       </c>
     </row>
@@ -12851,7 +11563,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C102, C304</t>
+          <t>C203, L402</t>
         </is>
       </c>
     </row>
@@ -12868,7 +11580,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C104, C305</t>
+          <t>C102, L405</t>
         </is>
       </c>
     </row>
@@ -12885,7 +11597,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C202, L402</t>
+          <t>C204, L406</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_timetable.xlsx
@@ -2084,12 +2084,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C001]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L403]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [C002]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C001], Thu 15:30-17:00 [C001]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C003], Thu 15:30-17:00 [C003]</t>
+          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C004], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C001]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L403]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3247,12 +3247,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [C002]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C001], Thu 15:30-17:00 [C001]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C003], Thu 15:30-17:00 [C003]</t>
+          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C004], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -4212,12 +4212,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C001]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4278,12 +4278,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L403]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4311,12 +4311,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [C002]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C001], Thu 15:30-17:00 [C001]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C003], Thu 15:30-17:00 [C003]</t>
+          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C004], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -5023,27 +5023,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [L407]</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L407]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [L407]</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [L407]</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [L407]</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
     </row>
@@ -5055,27 +5055,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mini Project [C202]</t>
+          <t>Mini Project [C304]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0-0-0-8-2 [C304]</t>
+          <t>0-0-0-8-2 [C204]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C304]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/0 [C305]</t>
+          <t>0/0 [C304]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C203]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -5111,27 +5111,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Course [L407]</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Course Code [L407]</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [L407]</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [L407]</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L407]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
     </row>
@@ -5143,27 +5143,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques [L407]</t>
+          <t>Cybersecurity techniques</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DS456 [L407]</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30 [L407]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L407]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5175,27 +5175,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques [L407]</t>
+          <t>Cybersecurity techniques</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DS456 [L407]</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30 [L407]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L407]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5207,27 +5207,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques [L407]</t>
+          <t>Cybersecurity techniques</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DS456 [L407]</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30 [L407]</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [L407]</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5239,27 +5239,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DevOPS and its application [L407]</t>
+          <t>DevOPS and its application</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS457 [L407]</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L407]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5271,27 +5271,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DevOPS and its application [L407]</t>
+          <t>DevOPS and its application</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS457 [L407]</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L407]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5303,27 +5303,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DevOPS and its application [L407]</t>
+          <t>DevOPS and its application</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS457 [L407]</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L407]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5335,27 +5335,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DevOPS and its application [L407]</t>
+          <t>DevOPS and its application</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS457 [L407]</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L407]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5367,27 +5367,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Generative AI [L407]</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EC462 [L407]</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00 [L407]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5399,27 +5399,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Generative AI [L407]</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EC462 [L407]</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00 [L407]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5431,27 +5431,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Generative AI [L407]</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EC462 [L407]</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00 [L407]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5463,27 +5463,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Generative AI [L407]</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EC462 [L407]</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00 [L407]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5495,27 +5495,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Generative AI [L407]</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EC462 [L407]</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00 [L407]</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5527,27 +5527,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AI for cybersecurity [L407]</t>
+          <t>AI for cybersecurity</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CS470 [L407]</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [L407]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L407]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5559,27 +5559,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AI for cybersecurity [L407]</t>
+          <t>AI for cybersecurity</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CS470 [L407]</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [L407]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L407]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5591,27 +5591,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AI for cybersecurity [L407]</t>
+          <t>AI for cybersecurity</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CS470 [L407]</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [L407]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L407]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5623,27 +5623,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AI for cybersecurity [L407]</t>
+          <t>AI for cybersecurity</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CS470 [L407]</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [L407]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L407]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5755,10 +5755,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6129,10 +6129,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6163,10 +6163,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -6197,10 +6197,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6469,10 +6469,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6537,10 +6537,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6857,10 +6857,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6919,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7030,12 +7030,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC498</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Mini Project</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7054,7 +7054,7 @@
         </is>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -7064,12 +7064,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Mini Project</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -7078,7 +7078,7 @@
         </is>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mini Project</t>
+          <t>0-0-0-8-2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -7136,12 +7136,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Mini Project</t>
+          <t>0-0-0-8-2</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -7169,17 +7169,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>EC498</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -7208,12 +7208,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7241,17 +7241,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC498</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -7270,7 +7270,7 @@
         </is>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -7280,12 +7280,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0-0-0-8-2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -7352,12 +7352,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0-0-0-8-2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -7385,32 +7385,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Cybersecurity techniques</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -7418,25 +7418,21 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="b">
         <v>1</v>
       </c>
@@ -7457,17 +7453,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7486,22 +7482,26 @@
         </is>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7510,7 +7510,7 @@
         </is>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7529,17 +7529,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC498</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7562,18 +7562,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7601,17 +7605,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7621,7 +7625,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -7630,31 +7634,35 @@
         </is>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -7673,17 +7681,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7693,7 +7701,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -7702,31 +7710,35 @@
         </is>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7745,17 +7757,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EC498</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7770,7 +7782,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7778,23 +7790,27 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P12" t="b">
@@ -7817,51 +7833,51 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7870,7 +7886,7 @@
         </is>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7889,51 +7905,55 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7942,7 +7962,7 @@
         </is>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7961,32 +7981,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EC498</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -7994,18 +8014,22 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -8033,17 +8057,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -8062,14 +8086,18 @@
         </is>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>L407</t>
@@ -8077,7 +8105,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -8086,7 +8114,7 @@
         </is>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -8105,7 +8133,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -8115,22 +8143,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -8144,12 +8172,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -8173,56 +8201,60 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DevOPS and its application</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>DevOPS and its application</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -8241,56 +8273,64 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Generative AI</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Generative AI</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -8309,56 +8349,64 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AI for cybersecurity</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>AI for cybersecurity</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -8377,32 +8425,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -8415,22 +8463,22 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P21" t="b">
@@ -8453,17 +8501,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8473,12 +8521,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -8491,22 +8539,22 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P22" t="b">
@@ -8529,17 +8577,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8572,17 +8620,17 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P23" t="b">
@@ -8605,17 +8653,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8625,36 +8673,44 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>DS456</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -8673,17 +8729,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8693,7 +8749,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -8702,27 +8758,35 @@
         </is>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -8741,17 +8805,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8761,7 +8825,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -8770,27 +8834,35 @@
         </is>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -8809,17 +8881,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8829,36 +8901,44 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -8882,12 +8962,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8915,7 +8995,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -8925,12 +9005,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P28" t="b">
@@ -8958,12 +9038,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8991,7 +9071,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -9001,12 +9081,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P29" t="b">
@@ -9034,55 +9114,51 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
       <c r="J30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DS401</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -9101,12 +9177,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -9126,7 +9202,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -9144,7 +9220,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -9154,7 +9230,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P31" t="b">
@@ -9177,12 +9253,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -9202,7 +9278,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -9220,7 +9296,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -9230,7 +9306,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P32" t="b">
@@ -9253,12 +9329,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -9278,7 +9354,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -9296,7 +9372,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -9306,7 +9382,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P33" t="b">
@@ -9329,12 +9405,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -9372,7 +9448,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -9382,7 +9458,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P34" t="b">
@@ -9405,17 +9481,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9425,36 +9501,44 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -9473,17 +9557,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9493,7 +9577,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -9502,27 +9586,35 @@
         </is>
       </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -9541,17 +9633,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9561,7 +9653,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -9570,27 +9662,35 @@
         </is>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -9609,17 +9709,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -9629,36 +9729,44 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -9682,12 +9790,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9715,22 +9823,22 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P39" t="b">
@@ -9758,12 +9866,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9778,7 +9886,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9791,17 +9899,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9834,12 +9942,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9867,17 +9975,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9910,12 +10018,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9943,7 +10051,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -9953,7 +10061,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9986,12 +10094,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -10019,22 +10127,22 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P43" t="b">
@@ -10062,59 +10170,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -10133,7 +10233,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -10143,7 +10243,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -10153,7 +10253,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10171,17 +10271,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -10209,7 +10309,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -10219,7 +10319,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -10229,7 +10329,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10247,17 +10347,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -10285,7 +10385,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -10295,7 +10395,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -10305,7 +10405,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -10323,17 +10423,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -10361,17 +10461,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10381,12 +10481,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -10404,17 +10504,17 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P48" t="b">
@@ -10437,859 +10537,55 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>7</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J50" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>7</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J51" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>7</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J52" t="b">
-        <v>1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>7</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J53" t="b">
-        <v>1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>7</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J54" t="b">
-        <v>1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>7</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J55" t="b">
-        <v>1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J56" t="b">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J57" t="b">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J58" t="b">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>7</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J59" t="b">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J60" t="b">
-        <v>1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11342,7 +10638,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C202, C205, L407</t>
+          <t>C204, C205, L106</t>
         </is>
       </c>
     </row>
@@ -11359,7 +10655,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C203, C302</t>
+          <t>C302, C303</t>
         </is>
       </c>
     </row>
@@ -11376,7 +10672,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001, C303</t>
+          <t>C104, C304</t>
         </is>
       </c>
     </row>
@@ -11393,7 +10689,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102, L407</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -11410,7 +10706,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002, C205</t>
         </is>
       </c>
     </row>
@@ -11427,7 +10723,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C003, C303</t>
         </is>
       </c>
     </row>
@@ -11444,7 +10740,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004, C302</t>
         </is>
       </c>
     </row>
@@ -11461,7 +10757,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304, L406</t>
         </is>
       </c>
     </row>
@@ -11478,7 +10774,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C205, L407</t>
+          <t>C305, L402</t>
         </is>
       </c>
     </row>
@@ -11495,7 +10791,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C205, C303</t>
+          <t>C101, C104, L404</t>
         </is>
       </c>
     </row>
@@ -11512,7 +10808,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C204, C304</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -11529,7 +10825,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C304, C305</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -11546,7 +10842,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C101, L403, L407</t>
+          <t>C001, C102, L405</t>
         </is>
       </c>
     </row>
@@ -11563,7 +10859,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C203, L402</t>
+          <t>C002, C204, L408</t>
         </is>
       </c>
     </row>
@@ -11580,7 +10876,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C102, L405</t>
+          <t>C003, C305, L406</t>
         </is>
       </c>
     </row>
@@ -11597,7 +10893,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C204, L406</t>
+          <t>C101, L407</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_timetable.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Regular_Timetable" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="PreMid_Timetable" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="PostMid_Timetable" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Section_A" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Utilization" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Classroom_Allocation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Course_Allocations" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -235,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -263,11 +267,55 @@
         <color rgb="00CCCCCC"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -371,6 +419,8 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1768,10 +1818,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -1781,12 +1831,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -1877,11 +1927,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="B18" s="35" t="n"/>
+      <c r="C18" s="35" t="n"/>
+      <c r="D18" s="35" t="n"/>
+      <c r="E18" s="35" t="n"/>
+      <c r="F18" s="36" t="n"/>
       <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
@@ -1935,7 +1985,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 09:00-10:30 [L405], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -1968,12 +2018,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C003], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 09:00-10:30 [L408], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C302]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -2001,12 +2051,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -2034,12 +2084,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [C001], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C205]</t>
+          <t>Wed 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2067,12 +2117,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C305]</t>
+          <t>Tue 09:00-10:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2100,12 +2150,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2133,12 +2183,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2166,12 +2216,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C305], Wed 10:30-12:00 [C205]</t>
+          <t>Mon 10:30-12:00 [C001], Wed 10:30-12:00 [C002]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C205]</t>
+          <t>Thu 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2199,12 +2249,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C303], Wed 10:30-12:00 [C305]</t>
+          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C001]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2232,12 +2282,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C003]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2265,12 +2315,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00 [C305], Wed 10:30-12:00 [C101]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2298,12 +2348,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C302], Wed 10:30-12:00 [C304]</t>
+          <t>Mon 10:30-12:00 [C302], Wed 10:30-12:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2331,12 +2381,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C205]</t>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2364,7 +2414,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C305]</t>
+          <t>Tue 15:30-17:00 [C001], Thu 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -2397,12 +2447,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C303]</t>
+          <t>Tue 15:30-17:00 [C003], Thu 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C002]</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -2430,12 +2480,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C001]</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -2832,10 +2882,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -2845,12 +2895,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -2941,11 +2991,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="B18" s="35" t="n"/>
+      <c r="C18" s="35" t="n"/>
+      <c r="D18" s="35" t="n"/>
+      <c r="E18" s="35" t="n"/>
+      <c r="F18" s="36" t="n"/>
       <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
@@ -2999,7 +3049,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 09:00-10:30 [L405], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -3032,12 +3082,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C003], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 09:00-10:30 [L408], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C302]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -3065,12 +3115,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -3098,12 +3148,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [C001], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C205]</t>
+          <t>Wed 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3131,12 +3181,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C305]</t>
+          <t>Tue 09:00-10:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3164,12 +3214,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3197,12 +3247,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3230,12 +3280,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C305], Wed 10:30-12:00 [C205]</t>
+          <t>Mon 10:30-12:00 [C001], Wed 10:30-12:00 [C002]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C205]</t>
+          <t>Thu 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3263,12 +3313,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C303], Wed 10:30-12:00 [C305]</t>
+          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C001]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3296,12 +3346,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C003]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3329,12 +3379,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00 [C305], Wed 10:30-12:00 [C101]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3362,12 +3412,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C302], Wed 10:30-12:00 [C304]</t>
+          <t>Mon 10:30-12:00 [C302], Wed 10:30-12:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3395,12 +3445,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C205]</t>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3428,7 +3478,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C305]</t>
+          <t>Tue 15:30-17:00 [C001], Thu 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -3461,12 +3511,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C303]</t>
+          <t>Tue 15:30-17:00 [C003], Thu 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C002]</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -3494,12 +3544,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C001]</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -3896,10 +3946,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -3909,12 +3959,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -4005,11 +4055,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="B18" s="35" t="n"/>
+      <c r="C18" s="35" t="n"/>
+      <c r="D18" s="35" t="n"/>
+      <c r="E18" s="35" t="n"/>
+      <c r="F18" s="36" t="n"/>
       <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
@@ -4063,7 +4113,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 09:00-10:30 [L405], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -4096,12 +4146,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C003], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 09:00-10:30 [L408], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C302]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -4129,12 +4179,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C102]</t>
+          <t>Tue 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -4162,12 +4212,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [C001], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C205]</t>
+          <t>Wed 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -4195,12 +4245,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C305]</t>
+          <t>Tue 09:00-10:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4228,12 +4278,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4261,12 +4311,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4294,12 +4344,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C305], Wed 10:30-12:00 [C205]</t>
+          <t>Mon 10:30-12:00 [C001], Wed 10:30-12:00 [C002]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C205]</t>
+          <t>Thu 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4327,12 +4377,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C303], Wed 10:30-12:00 [C305]</t>
+          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C001]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4360,12 +4410,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C003]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4393,12 +4443,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00 [C305], Wed 10:30-12:00 [C101]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4426,12 +4476,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C302], Wed 10:30-12:00 [C304]</t>
+          <t>Mon 10:30-12:00 [C302], Wed 10:30-12:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4459,12 +4509,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C205]</t>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4492,7 +4542,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C305]</t>
+          <t>Tue 15:30-17:00 [C001], Thu 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -4525,12 +4575,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C303]</t>
+          <t>Tue 15:30-17:00 [C003], Thu 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C002]</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -4558,12 +4608,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C001]</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -4581,4 +4631,7021 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COURSE INFORMATION</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CORE COURSES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mini Project [C302]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2 [C302]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Full Sem [C104]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0/0 [C302]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0/0 [C302]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE BASKETS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L405], Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L405], Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L405], Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00 [C001], Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00 [C001], Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00 [C001], Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00 [C001], Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00 [C001], Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Tue 15:30-17:00 [C002], Thu 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L405], Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L405], Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C102, C205, L105, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C101, C104, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C203, C305, L403</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C001, C002, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C001, C102, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C003, C101, C204</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C101, C205, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C101, C203, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C001, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C203, C204</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C102, C205</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C002, C004, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C001, C002, C102</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C001, C003, C104</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C003, C101, C304</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>